--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/fuels/BCTR/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\fuels\BCTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{A671BB5D-81E5-4DC0-8F57-B3850DF78D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C4D968C-FC9D-4E4F-80E0-3D4ADC37D9AA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED464C-FC0C-47EF-A2C1-21B0B5CF6166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="3450" yWindow="435" windowWidth="23955" windowHeight="16500" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BCTR" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>BCTR BAU Carbon Tax Rate</t>
   </si>
@@ -47,6 +46,12 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>There is no federal carbon tax in the U.S.</t>
+  </si>
+  <si>
+    <t>We currently disregard state-level programs, such as California's cap-and-trade system.</t>
   </si>
   <si>
     <t>Unit: $/metric ton CO2e</t>
@@ -74,24 +79,6 @@
   </si>
   <si>
     <t>geoengineering sector (uses industry sector rate)</t>
-  </si>
-  <si>
-    <t>https://www.canada.ca/en/environment-climate-change/services/climate-change/pricing-pollution-how-it-will-work/carbon-pollution-pricing-federal-benchmark-information/federal-benchmark-2023-2030.html#toc3</t>
-  </si>
-  <si>
-    <t>Greenhouse Gas Pollution Pricing Act:</t>
-  </si>
-  <si>
-    <t>https://laws-lois.justice.gc.ca/eng/acts/G-11.55/index.html</t>
-  </si>
-  <si>
-    <t>Schedule 4: Excess Emissions Charge</t>
-  </si>
-  <si>
-    <t>https://laws-lois.justice.gc.ca/eng/acts/G-11.55/page-43.html#docCont</t>
-  </si>
-  <si>
-    <t>Update to the Pan-Canadian Approach to Carbon Pollution Pricing 2023-2030</t>
   </si>
 </sst>
 </file>
@@ -468,20 +455,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49357908-BC85-41CC-9D98-173369A13AF6}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -489,39 +474,19 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -537,18 +502,16 @@
   </sheetPr>
   <dimension ref="A1:AG9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1">
         <v>2019</v>
@@ -647,9 +610,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -748,9 +711,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -849,9 +812,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -950,9 +913,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1051,9 +1014,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1152,9 +1115,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1253,9 +1216,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1354,9 +1317,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1459,334 +1422,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D566B-C27F-4EA9-B793-5B1B0131AE43}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
-    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
-                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
-                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33D478E3-7DC9-49DC-A985-351D5A5E71A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E56F870-4915-4847-81D2-17ADA5F0E60A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3EF0BA-71F1-414E-9848-AE09287F3DC7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25324"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\fuels\BCTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/fuels/BCTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED464C-FC0C-47EF-A2C1-21B0B5CF6166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="207" documentId="8_{A671BB5D-81E5-4DC0-8F57-B3850DF78D78}" xr6:coauthVersionLast="48" xr6:coauthVersionMax="48" xr10:uidLastSave="{CF39C110-E46E-44FC-A447-827BEA403D8B}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="435" windowWidth="23955" windowHeight="16500" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BCTR" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="price schedule" sheetId="3" r:id="rId3"/>
+    <sheet name="Unit Conversion" sheetId="6" r:id="rId4"/>
+    <sheet name="Industry" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="BCTR" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,31 +31,88 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={3B46C4B0-4259-4BDC-A183-3E7E4BFE8191}</author>
+  </authors>
+  <commentList>
+    <comment ref="G16" authorId="0" shapeId="0" xr:uid="{3B46C4B0-4259-4BDC-A183-3E7E4BFE8191}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Colton Kasteel, I think we will need the carbon price data starting at 2018. 
+Is there a way to adjust the price based on OBPS for each sector instead of applying the Carbon tax uniformatlly across all sectors? 
+I think Climate Choices have published reports on this. We can ask them specifically to share their data if needed.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={2DF56F10-B7D2-4BFA-82B0-171A49353694}</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{2DF56F10-B7D2-4BFA-82B0-171A49353694}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Colton Kasteel, I think we will need the carbon price data starting at 2018. 
+Is there a way to adjust the price based on OBPS for each sector instead of applying the Carbon tax uniformatlly across all sectors? 
+I think Climate Choices have published reports on this. We can ask them specifically to share their data if needed.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>BCTR BAU Carbon Tax Rate</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>none needed</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>There is no federal carbon tax in the U.S.</t>
-  </si>
-  <si>
-    <t>We currently disregard state-level programs, such as California's cap-and-trade system.</t>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>Greenhouse Gas Pollution Pricing Act:</t>
+  </si>
+  <si>
+    <t>https://laws-lois.justice.gc.ca/eng/acts/G-11.55/index.html</t>
+  </si>
+  <si>
+    <t>Schedule 4: Excess Emissions Charge</t>
+  </si>
+  <si>
+    <t>https://laws-lois.justice.gc.ca/eng/acts/G-11.55/page-43.html#docCont</t>
+  </si>
+  <si>
+    <t>Update to the Pan-Canadian Approach to Carbon Pollution Pricing 2023-2030</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/environment-climate-change/services/climate-change/pricing-pollution-how-it-will-work/carbon-pollution-pricing-federal-benchmark-information/federal-benchmark-2023-2030.html#toc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon tax help constant past 2030, no current policy exists past this year. </t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>aggregated</t>
   </si>
   <si>
     <t>Unit: $/metric ton CO2e</t>
@@ -63,6 +124,9 @@
     <t>electricity sector</t>
   </si>
   <si>
+    <t>at federal level, falls under OBPS (same as industry)</t>
+  </si>
+  <si>
     <t>residential buildings sector</t>
   </si>
   <si>
@@ -73,6 +137,178 @@
   </si>
   <si>
     <t>district heat and hydrogen sector</t>
+  </si>
+  <si>
+    <t>disaggregated</t>
+  </si>
+  <si>
+    <t>BC overall carbon tax ($/ton)</t>
+  </si>
+  <si>
+    <t>different from overall Canadian rate increases given existing carbon tax</t>
+  </si>
+  <si>
+    <t>BC CIIP overview: If an industrial facility has an emissions intensity that is below the emissions benchmark for its sector, it will be eligible to receive a payment equal to the full amount of carbon tax above $30/tCO2e paid in the previous year. Operations that have low emissions but do not fully meet the low-carbon benchmark for their sector may still be eligible for a partial incentive on a sliding scale, if they meet the eligibility threshold.</t>
+  </si>
+  <si>
+    <t>AB industry carbon tax rate (TIER program)</t>
+  </si>
+  <si>
+    <t>Alberta govt has made a few announcements that suggest perhaps heavy industry aren't actually facing a $30/ton cost? E.g.: in 2020 AB Govt saved industry $330m in compliance cost</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Assume same as backstop. Never spent a whole year under Ontario Liberal Party govt carbon tax plan; tax was scrapped by Ford govt in 2019. question--does this mean Ontario has always been subject to the backstop price? Or was there a window where it wasn't applied due to the court challenge</t>
+  </si>
+  <si>
+    <t>QC--CA average credit prices (CAD) [weighted avg 2019-2021; projections 2022-2030]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-2021 price a weighted average of credit prices from Revenues: https://www.environnement.gouv.qc.ca/changements/carbone/revenus-en.htm ; </t>
+  </si>
+  <si>
+    <t>QC--CA projected minimum credit prices  (USD)</t>
+  </si>
+  <si>
+    <t>Prices 2022-2030 are estimates from https://www.environnement.gouv.qc.ca/changements/carbone/Ventes-encheres-en.htm</t>
+  </si>
+  <si>
+    <t>Canada Benchmark Rates for Carbon Pricing</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <r>
+      <t>Minimum Carbon Pollution Price ($ CAD/tonne CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e)</t>
+    </r>
+  </si>
+  <si>
+    <t>data on carbon tax update (2022): https://www.canada.ca/en/environment-climate-change/services/climate-change/pricing-pollution-how-it-will-work/carbon-pollution-pricing-federal-benchmark-information/federal-benchmark-2023-2030.html</t>
+  </si>
+  <si>
+    <t>*no price schedule yet for raising the tax beyond 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exemptions for: </t>
+  </si>
+  <si>
+    <t>result: pay for 16</t>
+  </si>
+  <si>
+    <t>oil + gas</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <r>
+      <t>Minimum Carbon Pollution Price ($ CAD/tonne CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e)</t>
+    </r>
+  </si>
+  <si>
+    <t>2019 CAD to 2012 USD</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t>Prince Edward Island</t>
+  </si>
+  <si>
+    <t>Nova Scotia</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>BC Industry ($ returned in CIIP grants)</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>Northwest Territories 5</t>
+  </si>
+  <si>
+    <t>Nunavut</t>
   </si>
   <si>
     <t>LULUCF sector (does not use fuel)</t>
@@ -85,7 +321,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +349,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +419,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4D4D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,15 +440,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +499,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Colton Kasteel" id="{5B663078-A336-472C-A060-88185672E649}" userId="coltonk@pembina.org" providerId="PeoplePicker"/>
+  <person displayName="Eyab Al-Aini" id="{35CFDEE5-FE06-47D4-A7A1-8B1A5D840F31}" userId="S::eyaba@pembina.org::e48cb72f-8969-4f81-87bc-9db77bc6adc6" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,40 +803,86 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="G16" dT="2022-04-21T21:36:47.79" personId="{35CFDEE5-FE06-47D4-A7A1-8B1A5D840F31}" id="{3B46C4B0-4259-4BDC-A183-3E7E4BFE8191}">
+    <text>@Colton Kasteel, I think we will need the carbon price data starting at 2018. 
+Is there a way to adjust the price based on OBPS for each sector instead of applying the Carbon tax uniformatlly across all sectors? 
+I think Climate Choices have published reports on this. We can ask them specifically to share their data if needed.</text>
+    <mentions>
+      <mention mentionpersonId="{5B663078-A336-472C-A060-88185672E649}" mentionId="{5E6F6351-F731-46A4-A04B-A096DEB414F4}" startIndex="0" length="15"/>
+    </mentions>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F4" dT="2022-04-21T21:36:47.79" personId="{35CFDEE5-FE06-47D4-A7A1-8B1A5D840F31}" id="{2DF56F10-B7D2-4BFA-82B0-171A49353694}">
+    <text>@Colton Kasteel, I think we will need the carbon price data starting at 2018. 
+Is there a way to adjust the price based on OBPS for each sector instead of applying the Carbon tax uniformatlly across all sectors? 
+I think Climate Choices have published reports on this. We can ask them specifically to share their data if needed.</text>
+    <mentions>
+      <mention mentionpersonId="{5B663078-A336-472C-A060-88185672E649}" mentionId="{73048A9B-DE29-42F1-B78C-13540E3A47DF}" startIndex="0" length="15"/>
+    </mentions>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49357908-BC85-41CC-9D98-173369A13AF6}">
-  <dimension ref="A1:B10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -496,224 +892,1823 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A588720-4507-45D9-BCC3-2B2208374E22}">
-  <sheetPr>
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:AG9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952A5C88-6146-4D47-AB85-879033D94A1D}">
+  <dimension ref="A1:P54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2024</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2026</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2027</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2028</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2029</v>
+      </c>
+      <c r="M2" s="8">
+        <v>2030</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11">
+        <v>40</v>
+      </c>
+      <c r="E4" s="11">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11">
+        <v>65</v>
+      </c>
+      <c r="G4" s="11">
+        <v>80</v>
+      </c>
+      <c r="H4" s="11">
+        <v>95</v>
+      </c>
+      <c r="I4" s="11">
+        <v>110</v>
+      </c>
+      <c r="J4" s="11">
+        <v>125</v>
+      </c>
+      <c r="K4" s="11">
+        <v>140</v>
+      </c>
+      <c r="L4" s="11">
+        <v>155</v>
+      </c>
+      <c r="M4" s="11">
+        <v>170</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11">
+        <v>40</v>
+      </c>
+      <c r="E6" s="11">
+        <v>50</v>
+      </c>
+      <c r="F6" s="11">
+        <v>65</v>
+      </c>
+      <c r="G6" s="11">
+        <v>80</v>
+      </c>
+      <c r="H6" s="11">
+        <v>95</v>
+      </c>
+      <c r="I6" s="11">
+        <v>110</v>
+      </c>
+      <c r="J6" s="11">
+        <v>125</v>
+      </c>
+      <c r="K6" s="11">
+        <v>140</v>
+      </c>
+      <c r="L6" s="11">
+        <v>155</v>
+      </c>
+      <c r="M6" s="11">
+        <v>170</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11">
+        <v>40</v>
+      </c>
+      <c r="E7" s="11">
+        <v>50</v>
+      </c>
+      <c r="F7" s="11">
+        <v>65</v>
+      </c>
+      <c r="G7" s="11">
+        <v>80</v>
+      </c>
+      <c r="H7" s="11">
+        <v>95</v>
+      </c>
+      <c r="I7" s="11">
+        <v>110</v>
+      </c>
+      <c r="J7" s="11">
+        <v>125</v>
+      </c>
+      <c r="K7" s="11">
+        <v>140</v>
+      </c>
+      <c r="L7" s="11">
+        <v>155</v>
+      </c>
+      <c r="M7" s="11">
+        <v>170</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="11">
+        <v>22.4</v>
+      </c>
+      <c r="C17" s="11">
+        <v>22.79</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="12">
+        <v>17.71</v>
+      </c>
+      <c r="E18" s="12">
+        <v>18.95</v>
+      </c>
+      <c r="F18" s="12">
+        <v>20.28</v>
+      </c>
+      <c r="G18" s="12">
+        <v>21.7</v>
+      </c>
+      <c r="H18" s="12">
+        <v>23.22</v>
+      </c>
+      <c r="I18" s="12">
+        <v>24.85</v>
+      </c>
+      <c r="J18" s="12">
+        <v>26.59</v>
+      </c>
+      <c r="K18" s="12">
+        <v>28.45</v>
+      </c>
+      <c r="L18" s="12">
+        <v>30.44</v>
+      </c>
+      <c r="M18" s="12">
+        <v>32.57</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2020</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2022</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2023</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2024</v>
+      </c>
+      <c r="I28" s="9">
+        <v>2025</v>
+      </c>
+      <c r="J28" s="9">
+        <v>2026</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2027</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2028</v>
+      </c>
+      <c r="M28" s="9">
+        <v>2029</v>
+      </c>
+      <c r="N28" s="9">
+        <v>2030</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8">
+        <v>30</v>
+      </c>
+      <c r="E29" s="8">
+        <v>40</v>
+      </c>
+      <c r="F29" s="8">
+        <v>50</v>
+      </c>
+      <c r="G29" s="8">
+        <v>65</v>
+      </c>
+      <c r="H29" s="8">
+        <v>80</v>
+      </c>
+      <c r="I29" s="8">
+        <v>95</v>
+      </c>
+      <c r="J29" s="8">
+        <v>110</v>
+      </c>
+      <c r="K29" s="8">
+        <v>125</v>
+      </c>
+      <c r="L29" s="8">
+        <v>140</v>
+      </c>
+      <c r="M29" s="8">
+        <v>155</v>
+      </c>
+      <c r="N29" s="8">
+        <v>170</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D35:N54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D566B-C27F-4EA9-B793-5B1B0131AE43}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2028</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2029</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>95</v>
+      </c>
+      <c r="I4">
+        <v>110</v>
+      </c>
+      <c r="J4">
+        <v>125</v>
+      </c>
+      <c r="K4">
+        <v>140</v>
+      </c>
+      <c r="L4">
+        <v>155</v>
+      </c>
+      <c r="M4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A2D7DA-4FF1-48A0-A5F7-57250DBB8408}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="15">
+        <v>0.676778671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA315A3F-A100-4C7E-AE2B-C5EEDCCC96FE}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1">
+        <v>2019</v>
+      </c>
+      <c r="H1">
+        <v>2020</v>
+      </c>
+      <c r="I1">
+        <v>2021</v>
+      </c>
+      <c r="J1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6">
+        <v>36798408</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="11">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11">
+        <v>30</v>
+      </c>
+      <c r="I2" s="11">
+        <v>40</v>
+      </c>
+      <c r="J2" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6">
+        <v>151516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6">
+        <v>953838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6">
+        <v>768005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8350601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>14186830</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="11">
+        <v>33400000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>81700000</v>
+      </c>
+      <c r="I7" s="11">
+        <v>65500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1344418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1156659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4268853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4967421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="6">
+        <v>39972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="6">
+        <v>37685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A588720-4507-45D9-BCC3-2B2208374E22}">
+  <sheetPr codeName="Sheet2">
+    <tabColor theme="4" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AH9"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="1">
         <v>2019</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>2020</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>2021</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>2022</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2023</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>2024</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>2025</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>2026</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>2027</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>2028</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>2029</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>2030</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>2031</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>2032</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>2033</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>2034</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>2035</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>2036</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>2037</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>2038</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>2039</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>2040</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>2041</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>2042</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>2043</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>2044</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>2045</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>2046</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>2047</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>2048</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>2049</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <f>'price schedule'!B4*'Unit Conversion'!$B$1</f>
+        <v>13.53557342</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>'price schedule'!C4*'Unit Conversion'!$B$1</f>
+        <v>20.303360130000002</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>'price schedule'!D4*'Unit Conversion'!$B$1</f>
+        <v>27.071146840000001</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <f>'price schedule'!E4*'Unit Conversion'!$B$1</f>
+        <v>33.83893355</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <f>'price schedule'!F4*'Unit Conversion'!$B$1</f>
+        <v>43.990613615000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f>'price schedule'!G4*'Unit Conversion'!$B$1</f>
+        <v>54.142293680000002</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>'price schedule'!H4*'Unit Conversion'!$B$1</f>
+        <v>64.293973745000002</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <f>'price schedule'!I4*'Unit Conversion'!$B$1</f>
+        <v>74.445653809999996</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <f>'price schedule'!J4*'Unit Conversion'!$B$1</f>
+        <v>84.597333875000004</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <f>'price schedule'!K4*'Unit Conversion'!$B$1</f>
+        <v>94.749013939999998</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <f>'price schedule'!L4*'Unit Conversion'!$B$1</f>
+        <v>104.90069400500001</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <f>'price schedule'!M4*'Unit Conversion'!$B$1</f>
+        <v>115.05237407</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <f>N2</f>
+        <v>115.05237407</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <f t="shared" ref="P2:AH2" si="0">O2</f>
+        <v>115.05237407</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AG2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -811,212 +2806,287 @@
       <c r="AG3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4">
+        <f>B2</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f t="shared" ref="C4:AH4" si="1">C2</f>
+        <v>13.53557342</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>20.303360130000002</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>27.071146840000001</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>33.83893355</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>43.990613615000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>54.142293680000002</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>64.293973745000002</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>74.445653809999996</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>84.597333875000004</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>94.749013939999998</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>104.90069400500001</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5">
+        <f>B2</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" ref="C5:AH5" si="2">C2</f>
+        <v>13.53557342</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20.303360130000002</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>27.071146840000001</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>33.83893355</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>43.990613615000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>54.142293680000002</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>64.293973745000002</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>74.445653809999996</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>84.597333875000004</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>94.749013939999998</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>104.90069400500001</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AG5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1114,10 +3184,13 @@
       <c r="AG6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1215,10 +3288,13 @@
       <c r="AG7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1316,10 +3392,13 @@
       <c r="AG8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1415,6 +3494,9 @@
         <v>0</v>
       </c>
       <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1422,4 +3504,288 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D3EF0BA-71F1-414E-9848-AE09287F3DC7}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33D478E3-7DC9-49DC-A985-351D5A5E71A6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E56F870-4915-4847-81D2-17ADA5F0E60A}"/>
 </file>
--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,22 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\fuels\BCTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/fuels/BCTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED464C-FC0C-47EF-A2C1-21B0B5CF6166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="210" documentId="8_{A671BB5D-81E5-4DC0-8F57-B3850DF78D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{E539444B-7712-4C00-AA2C-E4398AAB0C3B}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="435" windowWidth="23955" windowHeight="16500" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="1" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BCTR" sheetId="2" r:id="rId2"/>
+    <sheet name="Calculations" sheetId="4" r:id="rId2"/>
+    <sheet name="price schedule" sheetId="3" r:id="rId3"/>
+    <sheet name="Unit Conversion" sheetId="6" r:id="rId4"/>
+    <sheet name="Industry" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="BCTR" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +31,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,24 +40,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
   <si>
     <t>BCTR BAU Carbon Tax Rate</t>
   </si>
   <si>
-    <t>Source:</t>
-  </si>
-  <si>
-    <t>none needed</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>There is no federal carbon tax in the U.S.</t>
-  </si>
-  <si>
-    <t>We currently disregard state-level programs, such as California's cap-and-trade system.</t>
+    <t>Sources:</t>
+  </si>
+  <si>
+    <t>Greenhouse Gas Pollution Pricing Act:</t>
+  </si>
+  <si>
+    <t>https://laws-lois.justice.gc.ca/eng/acts/G-11.55/index.html</t>
+  </si>
+  <si>
+    <t>Schedule 4: Excess Emissions Charge</t>
+  </si>
+  <si>
+    <t>https://laws-lois.justice.gc.ca/eng/acts/G-11.55/page-43.html#docCont</t>
+  </si>
+  <si>
+    <t>Update to the Pan-Canadian Approach to Carbon Pollution Pricing 2023-2030</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/environment-climate-change/services/climate-change/pricing-pollution-how-it-will-work/carbon-pollution-pricing-federal-benchmark-information/federal-benchmark-2023-2030.html#toc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon tax help constant past 2030, no current policy exists past this year. </t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>aggregated</t>
   </si>
   <si>
     <t>Unit: $/metric ton CO2e</t>
@@ -63,6 +84,9 @@
     <t>electricity sector</t>
   </si>
   <si>
+    <t>at federal level, falls under OBPS (same as industry)</t>
+  </si>
+  <si>
     <t>residential buildings sector</t>
   </si>
   <si>
@@ -73,6 +97,178 @@
   </si>
   <si>
     <t>district heat and hydrogen sector</t>
+  </si>
+  <si>
+    <t>disaggregated</t>
+  </si>
+  <si>
+    <t>BC overall carbon tax ($/ton)</t>
+  </si>
+  <si>
+    <t>different from overall Canadian rate increases given existing carbon tax</t>
+  </si>
+  <si>
+    <t>BC CIIP overview: If an industrial facility has an emissions intensity that is below the emissions benchmark for its sector, it will be eligible to receive a payment equal to the full amount of carbon tax above $30/tCO2e paid in the previous year. Operations that have low emissions but do not fully meet the low-carbon benchmark for their sector may still be eligible for a partial incentive on a sliding scale, if they meet the eligibility threshold.</t>
+  </si>
+  <si>
+    <t>AB industry carbon tax rate (TIER program)</t>
+  </si>
+  <si>
+    <t>Alberta govt has made a few announcements that suggest perhaps heavy industry aren't actually facing a $30/ton cost? E.g.: in 2020 AB Govt saved industry $330m in compliance cost</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>Assume same as backstop. Never spent a whole year under Ontario Liberal Party govt carbon tax plan; tax was scrapped by Ford govt in 2019. question--does this mean Ontario has always been subject to the backstop price? Or was there a window where it wasn't applied due to the court challenge</t>
+  </si>
+  <si>
+    <t>QC--CA average credit prices (CAD) [weighted avg 2019-2021; projections 2022-2030]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-2021 price a weighted average of credit prices from Revenues: https://www.environnement.gouv.qc.ca/changements/carbone/revenus-en.htm ; </t>
+  </si>
+  <si>
+    <t>QC--CA projected minimum credit prices  (USD)</t>
+  </si>
+  <si>
+    <t>Prices 2022-2030 are estimates from https://www.environnement.gouv.qc.ca/changements/carbone/Ventes-encheres-en.htm</t>
+  </si>
+  <si>
+    <t>Canada Benchmark Rates for Carbon Pricing</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <r>
+      <t>Minimum Carbon Pollution Price ($ CAD/tonne CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>e)</t>
+    </r>
+  </si>
+  <si>
+    <t>data on carbon tax update (2022): https://www.canada.ca/en/environment-climate-change/services/climate-change/pricing-pollution-how-it-will-work/carbon-pollution-pricing-federal-benchmark-information/federal-benchmark-2023-2030.html</t>
+  </si>
+  <si>
+    <t>*no price schedule yet for raising the tax beyond 2030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">exemptions for: </t>
+  </si>
+  <si>
+    <t>result: pay for 16</t>
+  </si>
+  <si>
+    <t>oil + gas</t>
+  </si>
+  <si>
+    <t>chemicals</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>steel</t>
+  </si>
+  <si>
+    <t>mining</t>
+  </si>
+  <si>
+    <r>
+      <t>Minimum Carbon Pollution Price ($ CAD/tonne CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e)</t>
+    </r>
+  </si>
+  <si>
+    <t>2019 CAD to 2012 USD</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t>Prince Edward Island</t>
+  </si>
+  <si>
+    <t>Nova Scotia</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>Quebec</t>
+  </si>
+  <si>
+    <t>BC Industry ($ returned in CIIP grants)</t>
+  </si>
+  <si>
+    <t>Manitoba</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>British Columbia</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>Northwest Territories 5</t>
+  </si>
+  <si>
+    <t>Nunavut</t>
   </si>
   <si>
     <t>LULUCF sector (does not use fuel)</t>
@@ -85,7 +281,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,8 +309,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -123,8 +379,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4D4D4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,15 +400,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,6 +458,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,38 +761,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49357908-BC85-41CC-9D98-173369A13AF6}">
-  <dimension ref="A1:B10"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -496,224 +822,1823 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952A5C88-6146-4D47-AB85-879033D94A1D}">
+  <dimension ref="A1:P54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <v>2019</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2020</v>
+      </c>
+      <c r="D2" s="8">
+        <v>2021</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2023</v>
+      </c>
+      <c r="G2" s="8">
+        <v>2024</v>
+      </c>
+      <c r="H2" s="8">
+        <v>2025</v>
+      </c>
+      <c r="I2" s="8">
+        <v>2026</v>
+      </c>
+      <c r="J2" s="8">
+        <v>2027</v>
+      </c>
+      <c r="K2" s="8">
+        <v>2028</v>
+      </c>
+      <c r="L2" s="8">
+        <v>2029</v>
+      </c>
+      <c r="M2" s="8">
+        <v>2030</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13">
+        <v>20</v>
+      </c>
+      <c r="C4" s="11">
+        <v>30</v>
+      </c>
+      <c r="D4" s="11">
+        <v>40</v>
+      </c>
+      <c r="E4" s="11">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11">
+        <v>65</v>
+      </c>
+      <c r="G4" s="11">
+        <v>80</v>
+      </c>
+      <c r="H4" s="11">
+        <v>95</v>
+      </c>
+      <c r="I4" s="11">
+        <v>110</v>
+      </c>
+      <c r="J4" s="11">
+        <v>125</v>
+      </c>
+      <c r="K4" s="11">
+        <v>140</v>
+      </c>
+      <c r="L4" s="11">
+        <v>155</v>
+      </c>
+      <c r="M4" s="11">
+        <v>170</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="13">
+        <v>20</v>
+      </c>
+      <c r="C6" s="11">
+        <v>30</v>
+      </c>
+      <c r="D6" s="11">
+        <v>40</v>
+      </c>
+      <c r="E6" s="11">
+        <v>50</v>
+      </c>
+      <c r="F6" s="11">
+        <v>65</v>
+      </c>
+      <c r="G6" s="11">
+        <v>80</v>
+      </c>
+      <c r="H6" s="11">
+        <v>95</v>
+      </c>
+      <c r="I6" s="11">
+        <v>110</v>
+      </c>
+      <c r="J6" s="11">
+        <v>125</v>
+      </c>
+      <c r="K6" s="11">
+        <v>140</v>
+      </c>
+      <c r="L6" s="11">
+        <v>155</v>
+      </c>
+      <c r="M6" s="11">
+        <v>170</v>
+      </c>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="13">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11">
+        <v>30</v>
+      </c>
+      <c r="D7" s="11">
+        <v>40</v>
+      </c>
+      <c r="E7" s="11">
+        <v>50</v>
+      </c>
+      <c r="F7" s="11">
+        <v>65</v>
+      </c>
+      <c r="G7" s="11">
+        <v>80</v>
+      </c>
+      <c r="H7" s="11">
+        <v>95</v>
+      </c>
+      <c r="I7" s="11">
+        <v>110</v>
+      </c>
+      <c r="J7" s="11">
+        <v>125</v>
+      </c>
+      <c r="K7" s="11">
+        <v>140</v>
+      </c>
+      <c r="L7" s="11">
+        <v>155</v>
+      </c>
+      <c r="M7" s="11">
+        <v>170</v>
+      </c>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="11">
+        <v>40</v>
+      </c>
+      <c r="C13" s="11">
+        <v>40</v>
+      </c>
+      <c r="D13" s="11">
+        <v>45</v>
+      </c>
+      <c r="E13" s="11">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+    </row>
+    <row r="14" spans="1:16" ht="28.5" customHeight="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11">
+        <v>30</v>
+      </c>
+      <c r="C15" s="11">
+        <v>30</v>
+      </c>
+      <c r="D15" s="11">
+        <v>40</v>
+      </c>
+      <c r="E15" s="11">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="11">
+        <v>22.4</v>
+      </c>
+      <c r="C17" s="11">
+        <v>22.79</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="12">
+        <v>17.71</v>
+      </c>
+      <c r="E18" s="12">
+        <v>18.95</v>
+      </c>
+      <c r="F18" s="12">
+        <v>20.28</v>
+      </c>
+      <c r="G18" s="12">
+        <v>21.7</v>
+      </c>
+      <c r="H18" s="12">
+        <v>23.22</v>
+      </c>
+      <c r="I18" s="12">
+        <v>24.85</v>
+      </c>
+      <c r="J18" s="12">
+        <v>26.59</v>
+      </c>
+      <c r="K18" s="12">
+        <v>28.45</v>
+      </c>
+      <c r="L18" s="12">
+        <v>30.44</v>
+      </c>
+      <c r="M18" s="12">
+        <v>32.57</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="8"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="8">
+        <v>2018</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2019</v>
+      </c>
+      <c r="D28" s="9">
+        <v>2020</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2021</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2022</v>
+      </c>
+      <c r="G28" s="9">
+        <v>2023</v>
+      </c>
+      <c r="H28" s="9">
+        <v>2024</v>
+      </c>
+      <c r="I28" s="9">
+        <v>2025</v>
+      </c>
+      <c r="J28" s="9">
+        <v>2026</v>
+      </c>
+      <c r="K28" s="9">
+        <v>2027</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2028</v>
+      </c>
+      <c r="M28" s="9">
+        <v>2029</v>
+      </c>
+      <c r="N28" s="9">
+        <v>2030</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+    </row>
+    <row r="29" spans="1:16" ht="18">
+      <c r="A29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8">
+        <v>20</v>
+      </c>
+      <c r="D29" s="8">
+        <v>30</v>
+      </c>
+      <c r="E29" s="8">
+        <v>40</v>
+      </c>
+      <c r="F29" s="8">
+        <v>50</v>
+      </c>
+      <c r="G29" s="8">
+        <v>65</v>
+      </c>
+      <c r="H29" s="8">
+        <v>80</v>
+      </c>
+      <c r="I29" s="8">
+        <v>95</v>
+      </c>
+      <c r="J29" s="8">
+        <v>110</v>
+      </c>
+      <c r="K29" s="8">
+        <v>125</v>
+      </c>
+      <c r="L29" s="8">
+        <v>140</v>
+      </c>
+      <c r="M29" s="8">
+        <v>155</v>
+      </c>
+      <c r="N29" s="8">
+        <v>170</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="9"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="16"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="16"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16"/>
+      <c r="N40" s="16"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="16"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="16"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="8"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D35:N54"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{641D566B-C27F-4EA9-B793-5B1B0131AE43}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2028</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2029</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
+      <c r="F4">
+        <v>65</v>
+      </c>
+      <c r="G4">
+        <v>80</v>
+      </c>
+      <c r="H4">
+        <v>95</v>
+      </c>
+      <c r="I4">
+        <v>110</v>
+      </c>
+      <c r="J4">
+        <v>125</v>
+      </c>
+      <c r="K4">
+        <v>140</v>
+      </c>
+      <c r="L4">
+        <v>155</v>
+      </c>
+      <c r="M4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20A2D7DA-4FF1-48A0-A5F7-57250DBB8408}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="14">
+        <v>0.676778671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA315A3F-A100-4C7E-AE2B-C5EEDCCC96FE}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="24.75">
+      <c r="A1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1">
+        <v>2019</v>
+      </c>
+      <c r="H1">
+        <v>2020</v>
+      </c>
+      <c r="I1">
+        <v>2021</v>
+      </c>
+      <c r="J1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="6">
+        <v>36798408</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="11">
+        <v>30</v>
+      </c>
+      <c r="H2" s="11">
+        <v>30</v>
+      </c>
+      <c r="I2" s="11">
+        <v>40</v>
+      </c>
+      <c r="J2" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="6">
+        <v>151516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="6">
+        <v>953838</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="6">
+        <v>768005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8350601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="6">
+        <v>14186830</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="11">
+        <v>33400000</v>
+      </c>
+      <c r="H7" s="11">
+        <v>81700000</v>
+      </c>
+      <c r="I7" s="11">
+        <v>65500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1344418</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1156659</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="6">
+        <v>4268853</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="6">
+        <v>4967421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="6">
+        <v>39972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="6">
+        <v>37685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A588720-4507-45D9-BCC3-2B2208374E22}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG9"/>
+  <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="1">
         <v>2019</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D1" s="1">
         <v>2020</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E1" s="1">
         <v>2021</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F1" s="1">
         <v>2022</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G1" s="1">
         <v>2023</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H1" s="1">
         <v>2024</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I1" s="1">
         <v>2025</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J1" s="1">
         <v>2026</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K1" s="1">
         <v>2027</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L1" s="1">
         <v>2028</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M1" s="1">
         <v>2029</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N1" s="1">
         <v>2030</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O1" s="1">
         <v>2031</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P1" s="1">
         <v>2032</v>
       </c>
-      <c r="P1" s="1">
+      <c r="Q1" s="1">
         <v>2033</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="R1" s="1">
         <v>2034</v>
       </c>
-      <c r="R1" s="1">
+      <c r="S1" s="1">
         <v>2035</v>
       </c>
-      <c r="S1" s="1">
+      <c r="T1" s="1">
         <v>2036</v>
       </c>
-      <c r="T1" s="1">
+      <c r="U1" s="1">
         <v>2037</v>
       </c>
-      <c r="U1" s="1">
+      <c r="V1" s="1">
         <v>2038</v>
       </c>
-      <c r="V1" s="1">
+      <c r="W1" s="1">
         <v>2039</v>
       </c>
-      <c r="W1" s="1">
+      <c r="X1" s="1">
         <v>2040</v>
       </c>
-      <c r="X1" s="1">
+      <c r="Y1" s="1">
         <v>2041</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Z1" s="1">
         <v>2042</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="AA1" s="1">
         <v>2043</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AB1" s="1">
         <v>2044</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AC1" s="1">
         <v>2045</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AD1" s="1">
         <v>2046</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AE1" s="1">
         <v>2047</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AF1" s="1">
         <v>2048</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AG1" s="1">
         <v>2049</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AH1" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <f>'price schedule'!B4*'Unit Conversion'!$B$1</f>
+        <v>13.53557342</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <f>'price schedule'!C4*'Unit Conversion'!$B$1</f>
+        <v>20.303360130000002</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <f>'price schedule'!D4*'Unit Conversion'!$B$1</f>
+        <v>27.071146840000001</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <f>'price schedule'!E4*'Unit Conversion'!$B$1</f>
+        <v>33.83893355</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <f>'price schedule'!F4*'Unit Conversion'!$B$1</f>
+        <v>43.990613615000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <f>'price schedule'!G4*'Unit Conversion'!$B$1</f>
+        <v>54.142293680000002</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <f>'price schedule'!H4*'Unit Conversion'!$B$1</f>
+        <v>64.293973745000002</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <f>'price schedule'!I4*'Unit Conversion'!$B$1</f>
+        <v>74.445653809999996</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <f>'price schedule'!J4*'Unit Conversion'!$B$1</f>
+        <v>84.597333875000004</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <f>'price schedule'!K4*'Unit Conversion'!$B$1</f>
+        <v>94.749013939999998</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <f>'price schedule'!L4*'Unit Conversion'!$B$1</f>
+        <v>104.90069400500001</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <f>'price schedule'!M4*'Unit Conversion'!$B$1</f>
+        <v>115.05237407</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <f>N2</f>
+        <v>115.05237407</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <f t="shared" ref="P2:AH2" si="0">O2</f>
+        <v>115.05237407</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
       </c>
       <c r="AG2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>115.05237407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -811,212 +2736,287 @@
       <c r="AG3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B4">
+        <f>B2</f>
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <f t="shared" ref="C4:AH4" si="1">C2</f>
+        <v>13.53557342</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>20.303360130000002</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>27.071146840000001</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>33.83893355</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>43.990613615000001</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>54.142293680000002</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>64.293973745000002</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>74.445653809999996</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>84.597333875000004</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>94.749013939999998</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>104.90069400500001</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
       </c>
       <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="1"/>
+        <v>115.05237407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B5">
+        <f>B2</f>
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <f t="shared" ref="C5:AH5" si="2">C2</f>
+        <v>13.53557342</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>20.303360130000002</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>27.071146840000001</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>33.83893355</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>43.990613615000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>54.142293680000002</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>64.293973745000002</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>74.445653809999996</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>84.597333875000004</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>94.749013939999998</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>104.90069400500001</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
       </c>
       <c r="AG5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="2"/>
+        <v>115.05237407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1114,10 +3114,13 @@
       <c r="AG6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1215,10 +3218,13 @@
       <c r="AG7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
       <c r="A8" s="3" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3">
         <v>0</v>
@@ -1316,10 +3322,13 @@
       <c r="AG8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AH8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
       <c r="A9" s="3" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="B9" s="3">
         <v>0</v>
@@ -1415,6 +3424,9 @@
         <v>0</v>
       </c>
       <c r="AG9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="3">
         <v>0</v>
       </c>
     </row>
@@ -1422,4 +3434,315 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+    <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:l787e5950a9249679d0130235a9a791b" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:ff7c4ad8664a4671b57370e258acad6a" minOccurs="0"/>
+                <xsd:element ref="ns2:of2ed5e60f3c4f8984f283882cb94320" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="52604411-7aeb-406e-8b34-4ce79a7293cc" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="l787e5950a9249679d0130235a9a791b" ma:index="9" nillable="true" ma:taxonomy="true" ma:internalName="l787e5950a9249679d0130235a9a791b" ma:taxonomyFieldName="ProposedRetention" ma:displayName="ProposedRetention" ma:default="" ma:fieldId="{5787e595-0a92-4967-9d01-30235a9a791b}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="1899fd67-b032-445b-9d35-9f66b9475fa9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="10" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{e351e87d-f0a7-48fd-ab84-339d8843ff25}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="d580559a-617d-4d7d-8fb9-71ff64b58360">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="ff7c4ad8664a4671b57370e258acad6a" ma:index="12" nillable="true" ma:taxonomy="true" ma:internalName="ff7c4ad8664a4671b57370e258acad6a" ma:taxonomyFieldName="Region" ma:displayName="Region" ma:default="" ma:fieldId="{ff7c4ad8-664a-4671-b573-70e258acad6a}" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="d0ef5e64-ccf8-4d0f-8f9e-d1bc0965d8f9" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="of2ed5e60f3c4f8984f283882cb94320" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="of2ed5e60f3c4f8984f283882cb94320" ma:taxonomyFieldName="Topics" ma:displayName="Topics" ma:default="" ma:fieldId="{8f2ed5e6-0f3c-4f89-84f2-83882cb94320}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="638057b0-b21b-42a9-a985-95f1f9da3292" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="de340059-046a-4f1a-8b62-ade039df3700" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="15" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="16" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="19" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="20" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="21" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="22" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="23" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d580559a-617d-4d7d-8fb9-71ff64b58360" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E56F870-4915-4847-81D2-17ADA5F0E60A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33D478E3-7DC9-49DC-A985-351D5A5E71A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F0E8BFD-8B29-4BA1-934D-6E4D690B9A19}"/>
 </file>
--- a/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
+++ b/InputData/fuels/BCTR/BAU Carbon Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/fuels/BCTR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="210" documentId="8_{A671BB5D-81E5-4DC0-8F57-B3850DF78D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{E539444B-7712-4C00-AA2C-E4398AAB0C3B}"/>
+  <xr:revisionPtr revIDLastSave="212" documentId="8_{A671BB5D-81E5-4DC0-8F57-B3850DF78D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DDB5AF7-F4FC-47EB-826D-C5409B16264B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="1" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{A875A243-FD0C-4B21-82AE-BAE80D34FF17}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -440,9 +440,8 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -458,10 +457,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,7 +760,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -776,7 +771,7 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -825,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952A5C88-6146-4D47-AB85-879033D94A1D}">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1692,17 +1687,17 @@
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
     </row>
@@ -1710,17 +1705,17 @@
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="16"/>
-      <c r="N36" s="16"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
     </row>
@@ -1728,17 +1723,17 @@
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="16"/>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
     </row>
@@ -1746,17 +1741,17 @@
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
     </row>
@@ -1764,17 +1759,17 @@
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="16"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="16"/>
-      <c r="M39" s="16"/>
-      <c r="N39" s="16"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15"/>
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
     </row>
@@ -1784,17 +1779,17 @@
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="16"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="16"/>
-      <c r="M40" s="16"/>
-      <c r="N40" s="16"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
@@ -1802,17 +1797,17 @@
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="16"/>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="15"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="15"/>
+      <c r="N41" s="15"/>
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
     </row>
@@ -1824,17 +1819,17 @@
         <v>37</v>
       </c>
       <c r="C42" s="8"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="16"/>
-      <c r="L42" s="16"/>
-      <c r="M42" s="16"/>
-      <c r="N42" s="16"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="15"/>
+      <c r="N42" s="15"/>
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
     </row>
@@ -1844,17 +1839,17 @@
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="16"/>
-      <c r="K43" s="16"/>
-      <c r="L43" s="16"/>
-      <c r="M43" s="16"/>
-      <c r="N43" s="16"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
+      <c r="N43" s="15"/>
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
     </row>
@@ -1864,17 +1859,17 @@
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="16"/>
-      <c r="I44" s="16"/>
-      <c r="J44" s="16"/>
-      <c r="K44" s="16"/>
-      <c r="L44" s="16"/>
-      <c r="M44" s="16"/>
-      <c r="N44" s="16"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
     </row>
@@ -1884,17 +1879,17 @@
       </c>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
     </row>
@@ -1904,17 +1899,17 @@
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
     </row>
@@ -1924,17 +1919,17 @@
       </c>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
     </row>
@@ -1942,17 +1937,17 @@
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="16"/>
-      <c r="J48" s="16"/>
-      <c r="K48" s="16"/>
-      <c r="L48" s="16"/>
-      <c r="M48" s="16"/>
-      <c r="N48" s="16"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
     </row>
@@ -1960,17 +1955,17 @@
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="16"/>
-      <c r="J49" s="16"/>
-      <c r="K49" s="16"/>
-      <c r="L49" s="16"/>
-      <c r="M49" s="16"/>
-      <c r="N49" s="16"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
     </row>
@@ -1978,17 +1973,17 @@
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="16"/>
-      <c r="J50" s="16"/>
-      <c r="K50" s="16"/>
-      <c r="L50" s="16"/>
-      <c r="M50" s="16"/>
-      <c r="N50" s="16"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
     </row>
@@ -1996,17 +1991,17 @@
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
-      <c r="I51" s="16"/>
-      <c r="J51" s="16"/>
-      <c r="K51" s="16"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="16"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="15"/>
+      <c r="N51" s="15"/>
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
     </row>
@@ -2014,17 +2009,17 @@
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="16"/>
-      <c r="I52" s="16"/>
-      <c r="J52" s="16"/>
-      <c r="K52" s="16"/>
-      <c r="L52" s="16"/>
-      <c r="M52" s="16"/>
-      <c r="N52" s="16"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="15"/>
+      <c r="M52" s="15"/>
+      <c r="N52" s="15"/>
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
     </row>
@@ -2032,17 +2027,17 @@
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
-      <c r="I53" s="16"/>
-      <c r="J53" s="16"/>
-      <c r="K53" s="16"/>
-      <c r="L53" s="16"/>
-      <c r="M53" s="16"/>
-      <c r="N53" s="16"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="15"/>
+      <c r="N53" s="15"/>
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
     </row>
@@ -2050,17 +2045,17 @@
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="16"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="16"/>
-      <c r="L54" s="16"/>
-      <c r="M54" s="16"/>
-      <c r="N54" s="16"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="15"/>
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
     </row>
@@ -2078,7 +2073,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2200,7 +2195,7 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="14">
+      <c r="B1" s="8">
         <v>0.676778671</v>
       </c>
     </row>
@@ -2386,8 +2381,8 @@
   </sheetPr>
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2886,11 +2881,11 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <f t="shared" ref="C5:AH5" si="2">C2</f>
+        <f>C2</f>
         <v>13.53557342</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="D5:AH5" si="2">D2</f>
         <v>20.303360130000002</v>
       </c>
       <c r="E5">
@@ -2902,7 +2897,7 @@
         <v>33.83893355</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f>G2</f>
         <v>43.990613615000001</v>
       </c>
       <c r="H5">
@@ -3466,8 +3461,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -3493,6 +3488,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -3593,6 +3589,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -3728,9 +3729,17 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E56F870-4915-4847-81D2-17ADA5F0E60A}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
     <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3744,5 +3753,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F0E8BFD-8B29-4BA1-934D-6E4D690B9A19}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47387184-DD91-44E1-9FBB-561C74AAD10C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>